--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2167.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2167.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.4696597294449</v>
+        <v>1.167686939239502</v>
       </c>
       <c r="B1">
-        <v>2.887283887086858</v>
+        <v>2.340146064758301</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.069265313555007</v>
+        <v>1.449784636497498</v>
       </c>
       <c r="E1">
-        <v>0.5912740195320449</v>
+        <v>0.9424439072608948</v>
       </c>
     </row>
   </sheetData>
